--- a/DataTables/Datas/equipment.xlsx
+++ b/DataTables/Datas/equipment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -127,7 +127,7 @@
     <t>盔甲</t>
   </si>
   <si>
-    <t>防御等级+1</t>
+    <t>防御等级+</t>
   </si>
   <si>
     <t>image/armor</t>
@@ -145,7 +145,7 @@
     <t>手套</t>
   </si>
   <si>
-    <t>零级命中率+1</t>
+    <t>零级命中率+</t>
   </si>
   <si>
     <t>image/gloves</t>
@@ -163,7 +163,7 @@
     <t>项链</t>
   </si>
   <si>
-    <t>生命值+10</t>
+    <t>生命值+</t>
   </si>
   <si>
     <t>image/necklace</t>
@@ -172,7 +172,7 @@
     <t>鞋</t>
   </si>
   <si>
-    <t>每回合额外攻击1次</t>
+    <t xml:space="preserve">每回合攻击次数: </t>
   </si>
   <si>
     <t>image/shoes</t>
@@ -181,7 +181,7 @@
     <t>腰带</t>
   </si>
   <si>
-    <t>受到伤害-1</t>
+    <t>受到伤害-</t>
   </si>
   <si>
     <t>image/belt</t>
@@ -190,7 +190,7 @@
     <t>武器</t>
   </si>
   <si>
-    <t>攻击力+1</t>
+    <t>攻击力+</t>
   </si>
   <si>
     <t>image/weapons</t>
@@ -1158,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -1456,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -1496,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
@@ -1539,6 +1539,26 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
         <v>42</v>
       </c>
     </row>
